--- a/metadata/Survey Themes.xlsx
+++ b/metadata/Survey Themes.xlsx
@@ -615,7 +615,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="54">
+  <fonts count="53">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -652,12 +652,6 @@
     <font>
       <sz val="10"/>
       <color indexed="0"/>
-      <name val="MS Sans Serif"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="8"/>
       <name val="MS Sans Serif"/>
       <family val="2"/>
     </font>
@@ -1281,123 +1275,123 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="41" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="42" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="43" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="44" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="45" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="46" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="48" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="43" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="44" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="45" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="47" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="52" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="52" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="52" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="52" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="52" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="52" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="52" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="52" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="52" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="52" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="52" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="37" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="52" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="51" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="51" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="51" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="51" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="51" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="51" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="51" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="51" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="51" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="51" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="51" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="51" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="10">
@@ -1410,9 +1404,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="9" applyFont="1" applyFill="1"/>
@@ -1876,7 +1870,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I9" sqref="I9"/>
+      <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -4072,7 +4066,7 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:H215">
     <sortCondition ref="A5:A215"/>
   </sortState>
-  <phoneticPr fontId="53" type="noConversion"/>
+  <phoneticPr fontId="52" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter differentOddEven="1" differentFirst="1"/>
